--- a/Bioinformatics/4-AssemblyAssessment/rnasep2/Assemblies_Stats_Summary.xlsx
+++ b/Bioinformatics/4-AssemblyAssessment/rnasep2/Assemblies_Stats_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsoldo01/Documents/Recherche/rnasep/Bioinformatics/4-AssemblyAssessment/rnasep2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E91D42-CA65-5D44-B831-99A5D48BB3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67116CA9-5D92-EA43-A9FF-83EF6E89B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="600" windowWidth="20480" windowHeight="15780" xr2:uid="{E8DBDCC8-F9D6-2B43-84A6-B38760076EC2}"/>
+    <workbookView xWindow="13440" yWindow="2020" windowWidth="10000" windowHeight="11620" xr2:uid="{E8DBDCC8-F9D6-2B43-84A6-B38760076EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="AssemblyRaw_Stats_Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Metric</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Number of transcripts</t>
   </si>
   <si>
-    <t>Mean sequence length</t>
-  </si>
-  <si>
     <t>Completeness - BUSCO</t>
   </si>
   <si>
@@ -131,7 +128,31 @@
     <t>94.0</t>
   </si>
   <si>
-    <t>Number of transcripts with ORF</t>
+    <t>Smallest transcript</t>
+  </si>
+  <si>
+    <t>Largest transcript</t>
+  </si>
+  <si>
+    <t>Mean transcript length</t>
+  </si>
+  <si>
+    <t>Mean ORF (%)</t>
+  </si>
+  <si>
+    <t>48.5</t>
+  </si>
+  <si>
+    <t>Bases with N (ambiguity)</t>
+  </si>
+  <si>
+    <t>Proportion of N bases</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>Predicted number of transcripts with ORF</t>
   </si>
 </sst>
 </file>
@@ -570,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DEC80A-96E9-C348-B841-E6128540D3A1}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,12 +616,12 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
         <v>33143</v>
@@ -624,170 +645,230 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
-        <v>621</v>
+        <v>179</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>577</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6">
-        <v>594</v>
+        <v>33040</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6">
-        <v>600</v>
+        <v>33040</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6">
-        <v>2005</v>
+        <v>621</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <v>1990</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6">
-        <v>20076</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
-        <v>13891</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>594</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
+      <c r="E11" s="6">
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2005</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
+      <c r="E12" s="6">
+        <v>1990</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43409</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="9" t="s">
-        <v>26</v>
+      <c r="E13" s="6">
+        <v>31200</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1467</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5388</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6">
-        <v>1467</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6">
-        <v>5388</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <v>5271</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>19</v>
+      <c r="C24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
